--- a/Doc/Logboeken/Eric_Log.xlsx
+++ b/Doc/Logboeken/Eric_Log.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectOman\Doc\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Datum</t>
   </si>
@@ -68,13 +68,16 @@
     <t>6 uur</t>
   </si>
   <si>
-    <t>Design</t>
-  </si>
-  <si>
     <t>5 uur</t>
   </si>
   <si>
     <t>Html template pages</t>
+  </si>
+  <si>
+    <t>Html template pages + code</t>
+  </si>
+  <si>
+    <t>Design (studie ajax)</t>
   </si>
 </sst>
 </file>
@@ -400,15 +403,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -485,7 +489,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -493,9 +497,20 @@
         <v>42061</v>
       </c>
       <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>42062</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Doc/Logboeken/Eric_Log.xlsx
+++ b/Doc/Logboeken/Eric_Log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Datum</t>
   </si>
@@ -403,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -514,6 +514,17 @@
         <v>16</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>42063</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Doc/Logboeken/Eric_Log.xlsx
+++ b/Doc/Logboeken/Eric_Log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Datum</t>
   </si>
@@ -59,9 +59,6 @@
     <t>13-02-215</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
     <t>7 uur</t>
   </si>
   <si>
@@ -74,10 +71,25 @@
     <t>Html template pages</t>
   </si>
   <si>
-    <t>Html template pages + code</t>
-  </si>
-  <si>
     <t>Design (studie ajax)</t>
+  </si>
+  <si>
+    <t>14 uur</t>
+  </si>
+  <si>
+    <t>Code Dal</t>
+  </si>
+  <si>
+    <t>Html template pages + code Dal</t>
+  </si>
+  <si>
+    <t>Code Dal + bugfixes + multipartconfig in ajax</t>
+  </si>
+  <si>
+    <t>0-02-2015</t>
+  </si>
+  <si>
+    <t>multipartconfig in ajax</t>
   </si>
 </sst>
 </file>
@@ -403,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,10 +487,10 @@
         <v>42056</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -486,10 +498,10 @@
         <v>42059</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -497,10 +509,10 @@
         <v>42061</v>
       </c>
       <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
         <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -508,10 +520,10 @@
         <v>42062</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -519,10 +531,21 @@
         <v>42063</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Logboeken/Eric_Log.xlsx
+++ b/Doc/Logboeken/Eric_Log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Datum</t>
   </si>
@@ -86,10 +86,16 @@
     <t>Code Dal + bugfixes + multipartconfig in ajax</t>
   </si>
   <si>
-    <t>0-02-2015</t>
-  </si>
-  <si>
     <t>multipartconfig in ajax</t>
+  </si>
+  <si>
+    <t>Update organism, errorhandling, dal</t>
+  </si>
+  <si>
+    <t>ajax, error, ddl vs jQuery research, subfamily fix, code</t>
+  </si>
+  <si>
+    <t>10 uur</t>
   </si>
 </sst>
 </file>
@@ -415,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,14 +544,36 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
+      <c r="A11" s="2">
+        <v>42036</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>42036</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>42065</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Logboeken/Eric_Log.xlsx
+++ b/Doc/Logboeken/Eric_Log.xlsx
@@ -95,7 +95,7 @@
     <t>ajax, error, ddl vs jQuery research, subfamily fix, code</t>
   </si>
   <si>
-    <t>10 uur</t>
+    <t>11 uur</t>
   </si>
 </sst>
 </file>

--- a/Doc/Logboeken/Eric_Log.xlsx
+++ b/Doc/Logboeken/Eric_Log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Datum</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>11 uur</t>
+  </si>
+  <si>
+    <t>Dal+ajax+update before validation</t>
   </si>
 </sst>
 </file>
@@ -421,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,6 +579,28 @@
         <v>22</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>42066</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>42067</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Doc/Logboeken/Eric_Log.xlsx
+++ b/Doc/Logboeken/Eric_Log.xlsx
@@ -533,7 +533,7 @@
               <a:ea typeface="Verdana"/>
               <a:cs typeface="Verdana"/>
             </a:rPr>
-            <a:t>CursusID:  </a:t>
+            <a:t>CursusID:  11714</a:t>
           </a:r>
         </a:p>
         <a:p>

--- a/Doc/Logboeken/Eric_Log.xlsx
+++ b/Doc/Logboeken/Eric_Log.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>datum</t>
   </si>
@@ -104,6 +104,18 @@
   </si>
   <si>
     <t>13-02-215</t>
+  </si>
+  <si>
+    <t>validation on all input fields + various fixes</t>
+  </si>
+  <si>
+    <t>display dynamic photo on all forms + various fixes</t>
+  </si>
+  <si>
+    <t>confirm messages + delete functions + required fields + detailpage + refactoring</t>
+  </si>
+  <si>
+    <t>13 uur</t>
   </si>
 </sst>
 </file>
@@ -209,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -271,9 +283,22 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -945,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -976,277 +1001,304 @@
       </c>
     </row>
     <row r="3" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21">
+      <c r="A3" s="24">
         <v>42044</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21">
+      <c r="A4" s="24">
         <v>42046</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="21" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21">
+      <c r="A6" s="24">
         <v>42048</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21">
+      <c r="A7" s="24">
         <v>42056</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21">
+      <c r="A8" s="24">
         <v>42059</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21">
+      <c r="A9" s="24">
         <v>42061</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21">
+      <c r="A10" s="24">
         <v>42062</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="21">
+      <c r="A11" s="24">
         <v>42063</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="21" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="21">
+      <c r="A12" s="24">
         <v>42036</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="21">
+      <c r="A13" s="24">
         <v>42036</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="21">
+      <c r="A14" s="24">
         <v>42065</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="21">
+      <c r="A15" s="24">
         <v>42066</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="21">
+      <c r="A16" s="24">
         <v>42067</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="10"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="10"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="26">
+        <v>42068</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="26">
+        <v>42069</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.15">
+      <c r="A19" s="26">
+        <v>42070</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>

--- a/Doc/Logboeken/Eric_Log.xlsx
+++ b/Doc/Logboeken/Eric_Log.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
   <si>
     <t>datum</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>13 uur</t>
+  </si>
+  <si>
+    <t>final touch (bugs, db clearen voor use, e.d.)</t>
+  </si>
+  <si>
+    <t>10 uur</t>
   </si>
 </sst>
 </file>
@@ -971,7 +977,7 @@
   <dimension ref="A1:D221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1239,9 +1245,18 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="26">
+        <v>42071</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>

--- a/Doc/Logboeken/Eric_Log.xlsx
+++ b/Doc/Logboeken/Eric_Log.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
   <si>
     <t>datum</t>
   </si>
@@ -122,6 +122,18 @@
   </si>
   <si>
     <t>10 uur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bug fixes </t>
+  </si>
+  <si>
+    <t>1 uur</t>
+  </si>
+  <si>
+    <t>regex online training + new regex for input fields</t>
+  </si>
+  <si>
+    <t>failsafe regex (final version)</t>
   </si>
 </sst>
 </file>
@@ -977,7 +989,7 @@
   <dimension ref="A1:D221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1259,49 +1271,82 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="10">
+        <v>42072</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="10">
+        <v>42077</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="10">
+        <v>42079</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="22"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="22"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="22"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>

--- a/Doc/Logboeken/Eric_Log.xlsx
+++ b/Doc/Logboeken/Eric_Log.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
   <si>
     <t>datum</t>
   </si>
@@ -134,6 +134,15 @@
   </si>
   <si>
     <t>failsafe regex (final version)</t>
+  </si>
+  <si>
+    <t>17-32015</t>
+  </si>
+  <si>
+    <t>Backend for detailpage organism</t>
+  </si>
+  <si>
+    <t>Backend for detailpage organism + frontend</t>
   </si>
 </sst>
 </file>
@@ -989,7 +998,7 @@
   <dimension ref="A1:D221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1313,16 +1322,32 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="22"/>
+      <c r="A24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="10"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="22"/>
+      <c r="A25" s="10">
+        <v>42081</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>

--- a/Doc/Logboeken/Eric_Log.xlsx
+++ b/Doc/Logboeken/Eric_Log.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t>datum</t>
   </si>
@@ -37,21 +37,9 @@
     <t xml:space="preserve">aantal uren </t>
   </si>
   <si>
-    <t>4 uur</t>
-  </si>
-  <si>
     <t>Projectwerk</t>
   </si>
   <si>
-    <t>7 uur</t>
-  </si>
-  <si>
-    <t>5 uur</t>
-  </si>
-  <si>
-    <t>6 uur</t>
-  </si>
-  <si>
     <t>Dal+ajax+update before validation</t>
   </si>
   <si>
@@ -88,21 +76,6 @@
     <t>Brainstorm DB</t>
   </si>
   <si>
-    <t>3 uur</t>
-  </si>
-  <si>
-    <t>2,5 uur</t>
-  </si>
-  <si>
-    <t>2 uur</t>
-  </si>
-  <si>
-    <t>14 uur</t>
-  </si>
-  <si>
-    <t>11 uur</t>
-  </si>
-  <si>
     <t>13-02-215</t>
   </si>
   <si>
@@ -115,25 +88,22 @@
     <t>confirm messages + delete functions + required fields + detailpage + refactoring</t>
   </si>
   <si>
-    <t>13 uur</t>
-  </si>
-  <si>
     <t>final touch (bugs, db clearen voor use, e.d.)</t>
   </si>
   <si>
-    <t>10 uur</t>
-  </si>
-  <si>
     <t xml:space="preserve">bug fixes </t>
   </si>
   <si>
-    <t>1 uur</t>
-  </si>
-  <si>
     <t>regex online training + new regex for input fields</t>
   </si>
   <si>
     <t>failsafe regex (final version)</t>
+  </si>
+  <si>
+    <t>Detail page organism (backend + front)</t>
+  </si>
+  <si>
+    <t>Regex + Resolving issues front end + Database problem Unicode (utf-8 vs latin1)</t>
   </si>
 </sst>
 </file>
@@ -989,7 +959,7 @@
   <dimension ref="A1:D221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1023,13 +993,13 @@
         <v>42044</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>21</v>
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -1037,27 +1007,27 @@
         <v>42046</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>22</v>
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1065,13 +1035,13 @@
         <v>42048</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>23</v>
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1079,13 +1049,13 @@
         <v>42056</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -1093,13 +1063,13 @@
         <v>42059</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -1107,13 +1077,13 @@
         <v>42061</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
         <v>5</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -1121,13 +1091,13 @@
         <v>42062</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1135,13 +1105,13 @@
         <v>42063</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1149,13 +1119,13 @@
         <v>42036</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
         <v>5</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1163,13 +1133,13 @@
         <v>42036</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1177,13 +1147,13 @@
         <v>42065</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>25</v>
+        <v>4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1191,12 +1161,12 @@
         <v>42066</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1205,13 +1175,13 @@
         <v>42067</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C16" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1">
         <v>5</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -1219,12 +1189,12 @@
         <v>42068</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1233,12 +1203,12 @@
         <v>42069</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1247,13 +1217,13 @@
         <v>42070</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="D19" s="1">
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -1261,13 +1231,13 @@
         <v>42071</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>32</v>
+        <v>4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -1275,13 +1245,13 @@
         <v>42072</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>34</v>
+        <v>4</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -1289,13 +1259,13 @@
         <v>42077</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>21</v>
+        <v>4</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -1303,26 +1273,42 @@
         <v>42079</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C23" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1">
         <v>5</v>
       </c>
-      <c r="D23" s="22" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="22"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="10"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="22"/>
+      <c r="A24" s="10">
+        <v>42081</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.15">
+      <c r="A25" s="10">
+        <v>42083</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>

--- a/Doc/Logboeken/Eric_Log.xlsx
+++ b/Doc/Logboeken/Eric_Log.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
   <si>
     <t>datum</t>
   </si>
@@ -959,7 +959,7 @@
   <dimension ref="A1:D221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1307,14 +1307,22 @@
         <v>4</v>
       </c>
       <c r="D25" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="22"/>
+      <c r="A26" s="10">
+        <v>42084</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>

--- a/Doc/Logboeken/Eric_Log.xlsx
+++ b/Doc/Logboeken/Eric_Log.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
   <si>
     <t>datum</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>Regex + Resolving issues front end + Database problem Unicode (utf-8 vs latin1)</t>
+  </si>
+  <si>
+    <t>Detail page organism (front)</t>
+  </si>
+  <si>
+    <t>Detail page organism (front) + begin van documentatie</t>
   </si>
 </sst>
 </file>
@@ -959,7 +965,7 @@
   <dimension ref="A1:D221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1325,16 +1331,32 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="22"/>
+      <c r="A27" s="10">
+        <v>42086</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="10"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="22"/>
+      <c r="A28" s="10">
+        <v>42091</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>

--- a/Doc/Logboeken/Eric_Log.xlsx
+++ b/Doc/Logboeken/Eric_Log.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Logboek" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Logboek!$B$2:$C$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Logboek!$B$2:$C$82</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>datum</t>
   </si>
@@ -110,13 +110,22 @@
   </si>
   <si>
     <t>Detail page organism (front) + begin van documentatie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front end email regex </t>
+  </si>
+  <si>
+    <t>Globaal dossier opgestart</t>
+  </si>
+  <si>
+    <t>Globaal dossier + Persoonlijk dossier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -141,12 +150,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="8"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -215,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -247,40 +250,34 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -962,144 +959,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D221"/>
+  <dimension ref="A1:D222"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="64.140625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="64.140625" style="17" customWidth="1"/>
     <col min="3" max="3" width="40.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="37.140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="15"/>
+    <col min="5" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="8" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:4" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24">
+    <row r="3" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="22">
         <v>42044</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24">
+    <row r="4" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="22">
         <v>42046</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="1">
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24">
+    <row r="6" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="22">
         <v>42048</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24">
+    <row r="7" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="22">
         <v>42056</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24">
+    <row r="8" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="22">
         <v>42059</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="24">
+    <row r="9" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="22">
         <v>42061</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="24">
+    <row r="10" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="22">
         <v>42062</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="1">
@@ -1107,13 +1104,13 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="24">
+      <c r="A11" s="22">
         <v>42063</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="1">
@@ -1121,27 +1118,27 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="24">
+      <c r="A12" s="22">
         <v>42036</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="24">
+      <c r="A13" s="22">
         <v>42036</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="1">
@@ -1149,13 +1146,13 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="24">
+      <c r="A14" s="22">
         <v>42065</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="1">
@@ -1163,13 +1160,13 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="24">
+      <c r="A15" s="22">
         <v>42066</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="1">
@@ -1177,13 +1174,13 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="24">
+      <c r="A16" s="22">
         <v>42067</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="1">
@@ -1191,41 +1188,41 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="26">
+      <c r="A17" s="24">
         <v>42068</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="1">
-        <v>4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="26">
+      <c r="A18" s="24">
         <v>42069</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.15">
-      <c r="A19" s="26">
+      <c r="A19" s="24">
         <v>42070</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="1">
@@ -1233,13 +1230,13 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="26">
+      <c r="A20" s="24">
         <v>42071</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="1">
@@ -1253,11 +1250,11 @@
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -1267,11 +1264,11 @@
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -1281,7 +1278,7 @@
       <c r="B23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="1">
@@ -1295,7 +1292,7 @@
       <c r="B24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="1">
@@ -1309,11 +1306,11 @@
       <c r="B25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
@@ -1323,7 +1320,7 @@
       <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="1">
@@ -1337,7 +1334,7 @@
       <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="1">
@@ -1351,7 +1348,7 @@
       <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="1">
@@ -1359,20 +1356,46 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="10"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="22"/>
+      <c r="A29" s="10">
+        <v>42100</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="10"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
+      <c r="A30" s="10">
+        <v>42100</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="10"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
+      <c r="A31" s="10">
+        <v>42125</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
@@ -1415,6 +1438,7 @@
       <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="10"/>
       <c r="B40" s="2"/>
       <c r="C40" s="3"/>
     </row>
@@ -1499,12 +1523,12 @@
       <c r="C60" s="3"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B61" s="4"/>
+      <c r="B61" s="2"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
+      <c r="C62" s="3"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B63" s="4"/>
@@ -1520,7 +1544,7 @@
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B66" s="4"/>
-      <c r="C66" s="6"/>
+      <c r="C66" s="5"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B67" s="4"/>
@@ -1538,9 +1562,9 @@
       <c r="B70" s="4"/>
       <c r="C70" s="6"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B71" s="4"/>
-      <c r="C71" s="3"/>
+      <c r="C71" s="6"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B72" s="4"/>
@@ -1594,9 +1618,9 @@
       <c r="B84" s="4"/>
       <c r="C84" s="3"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B85" s="4"/>
-      <c r="C85" s="7"/>
+      <c r="C85" s="3"/>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B86" s="4"/>
@@ -1604,7 +1628,7 @@
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B87" s="4"/>
-      <c r="C87" s="6"/>
+      <c r="C87" s="7"/>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B88" s="4"/>
@@ -1636,7 +1660,7 @@
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B95" s="4"/>
-      <c r="C95" s="7"/>
+      <c r="C95" s="6"/>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B96" s="4"/>
@@ -1652,7 +1676,7 @@
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B99" s="4"/>
-      <c r="C99" s="5"/>
+      <c r="C99" s="7"/>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B100" s="4"/>
@@ -1674,9 +1698,9 @@
       <c r="B104" s="4"/>
       <c r="C104" s="5"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B105" s="4"/>
-      <c r="C105" s="3"/>
+      <c r="C105" s="5"/>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B106" s="4"/>
@@ -1702,9 +1726,9 @@
       <c r="B111" s="4"/>
       <c r="C111" s="3"/>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B112" s="4"/>
-      <c r="C112" s="7"/>
+      <c r="C112" s="3"/>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B113" s="4"/>
@@ -2142,8 +2166,12 @@
       <c r="B221" s="4"/>
       <c r="C221" s="7"/>
     </row>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B222" s="4"/>
+      <c r="C222" s="7"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B2:C81"/>
+  <autoFilter ref="B2:C82"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="1.3779527559055118" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="8" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>

--- a/Doc/Logboeken/Eric_Log.xlsx
+++ b/Doc/Logboeken/Eric_Log.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
   <si>
     <t>datum</t>
   </si>
@@ -119,6 +119,15 @@
   </si>
   <si>
     <t>Globaal dossier + Persoonlijk dossier</t>
+  </si>
+  <si>
+    <t>Online cursus Adobe After Effects</t>
+  </si>
+  <si>
+    <t>Intro film Presentatie</t>
+  </si>
+  <si>
+    <t>Usecases Algemeen dossier</t>
   </si>
 </sst>
 </file>
@@ -961,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1398,79 +1407,115 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="10"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="10"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="10"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="10"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="10">
+        <v>42128</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="10">
+        <v>42130</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="10">
+        <v>42133</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="10">
+        <v>42133</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="10"/>
       <c r="B36" s="2"/>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="10"/>
       <c r="B37" s="2"/>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="10"/>
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
       <c r="B39" s="2"/>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
       <c r="B40" s="2"/>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B41" s="2"/>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B42" s="2"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B43" s="2"/>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B45" s="2"/>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B46" s="2"/>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B47" s="2"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B48" s="2"/>
       <c r="C48" s="3"/>
     </row>

--- a/Doc/Logboeken/Eric_Log.xlsx
+++ b/Doc/Logboeken/Eric_Log.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
   <si>
     <t>datum</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Usecases Algemeen dossier</t>
+  </si>
+  <si>
+    <t>Presentatie - Powerpoint</t>
   </si>
 </sst>
 </file>
@@ -971,7 +974,7 @@
   <dimension ref="A1:D222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D36" sqref="D3:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1463,9 +1466,18 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="10"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="3"/>
+      <c r="A36" s="10">
+        <v>42141</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="10"/>

--- a/Doc/Logboeken/Eric_Log.xlsx
+++ b/Doc/Logboeken/Eric_Log.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
   <si>
     <t>datum</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>Presentatie - Powerpoint</t>
+  </si>
+  <si>
+    <t>Persoonlijk dossier</t>
+  </si>
+  <si>
+    <t>Algemeen dossier - Methodologie, algemene layout, requirements</t>
   </si>
 </sst>
 </file>
@@ -973,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D222"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D3:D36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1480,14 +1486,32 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="10"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="3"/>
+      <c r="A37" s="10">
+        <v>42151</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="10"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="3"/>
+      <c r="A38" s="10">
+        <v>42155</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>

--- a/Doc/Logboeken/Eric_Log.xlsx
+++ b/Doc/Logboeken/Eric_Log.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectOman\Doc\Logboeken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="315" windowWidth="15480" windowHeight="10605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Logboek" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="41">
   <si>
     <t>datum</t>
   </si>
@@ -137,6 +137,15 @@
   </si>
   <si>
     <t>Algemeen dossier - Methodologie, algemene layout, requirements</t>
+  </si>
+  <si>
+    <t>Algemene presentatie - film samenstellen</t>
+  </si>
+  <si>
+    <t>Persoonlijk dossier + film compressie</t>
+  </si>
+  <si>
+    <t>Algemeen dossier</t>
   </si>
 </sst>
 </file>
@@ -236,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -307,6 +316,9 @@
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -979,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1514,18 +1526,46 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="10"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="3"/>
+      <c r="A39" s="10">
+        <v>42158</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="10"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="3"/>
+      <c r="A40" s="10">
+        <v>42161</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B41" s="2"/>
-      <c r="C41" s="3"/>
+      <c r="A41" s="25">
+        <v>42161</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B42" s="2"/>
